--- a/biology/Zoologie/Gecko_diurne_à_queue_bleue/Gecko_diurne_à_queue_bleue.xlsx
+++ b/biology/Zoologie/Gecko_diurne_à_queue_bleue/Gecko_diurne_à_queue_bleue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gecko_diurne_%C3%A0_queue_bleue</t>
+          <t>Gecko_diurne_à_queue_bleue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phelsuma cepediana
-Phelsuma cepediana, le Gecko diurne à queue bleue est une espèce de gecko de la famille des Gekkonidae[1]. Elle est aussi appelée Phelsuma cepediana 
+Phelsuma cepediana, le Gecko diurne à queue bleue est une espèce de gecko de la famille des Gekkonidae. Elle est aussi appelée Phelsuma cepediana 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gecko_diurne_%C3%A0_queue_bleue</t>
+          <t>Gecko_diurne_à_queue_bleue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce était endémique de l'île Maurice[1]. Elle a été introduite à Rodrigues.
-Sa présence à Madagascar a été signalée à quelques reprises dans le passé, notamment dans la région d'Iviloina. Ces observations n'ont toutefois pas été confirmées[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce était endémique de l'île Maurice. Elle a été introduite à Rodrigues.
+Sa présence à Madagascar a été signalée à quelques reprises dans le passé, notamment dans la région d'Iviloina. Ces observations n'ont toutefois pas été confirmées.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gecko_diurne_%C3%A0_queue_bleue</t>
+          <t>Gecko_diurne_à_queue_bleue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gecko diurne à queue bleue se rencontre surtout dans les buissons et des arbres comme les cocotiers, les bananiers, les papayers et l'arbre du voyageur. On le trouve aussi dans les jardins et les maisons dans les zones suburbaines.
 En règle générale, il préfère les climats chauds et humides. Or, comme l'a souligné McKeown en 1993, la végétation originelle de Maurice a été largement remplacée par des cultures où ces conditions ne se rencontrent pas et où le reptile ne peut pas vivre.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gecko_diurne_%C3%A0_queue_bleue</t>
+          <t>Gecko_diurne_à_queue_bleue</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un gecko diurne et arboricole. Il peut atteindre une longueur totale de 135 mm.
 Le corps du mâle est vert clair à bleu vert. Couvert de points et de taches rouge sombre, son dos est d'un bleu intense. Sa queue a un bleu plus profond, d'où le nom commun donné à l'espèce.
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gecko_diurne_%C3%A0_queue_bleue</t>
+          <t>Gecko_diurne_à_queue_bleue</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gecko diurne à queue bleue est insectivore, il aime aussi lécher des fruits à la chair tendre et sucrée, leur nectar et le pollen.
 </t>
@@ -626,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gecko_diurne_%C3%A0_queue_bleue</t>
+          <t>Gecko_diurne_à_queue_bleue</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,7 +664,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des geckos territoriaux, qui peuvent être agressifs au détriment de leurs congénères et des autres phelsumes.
 </t>
@@ -657,7 +679,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gecko_diurne_%C3%A0_queue_bleue</t>
+          <t>Gecko_diurne_à_queue_bleue</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,7 +697,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les femelles pondent dans des endroits protégés. Les œufs y sont collés.
 Les œufs incubent durant environ 40 à 45 jours (à une température moyenne de 28 °C, la durée d'incubation pouvant varier selon le climat).
@@ -690,7 +714,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gecko_diurne_%C3%A0_queue_bleue</t>
+          <t>Gecko_diurne_à_queue_bleue</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -708,9 +732,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur du zoologiste français comte de Lacépède (1756-1825)[1].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur du zoologiste français comte de Lacépède (1756-1825).
 </t>
         </is>
       </c>
@@ -721,7 +747,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Gecko_diurne_%C3%A0_queue_bleue</t>
+          <t>Gecko_diurne_à_queue_bleue</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -739,7 +765,9 @@
           <t>En captivité</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces geckos se rencontrent en terrariophilie.
 </t>
@@ -752,7 +780,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gecko_diurne_%C3%A0_queue_bleue</t>
+          <t>Gecko_diurne_à_queue_bleue</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -770,7 +798,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Milbert, 1812 : Voyage pittoresque à l'île-de-France, au cap de Bonne-Espérance et à l'île de Ténériffe, Tomes I et II, atlas, Nepveu, Paris (texte intégral).</t>
         </is>
